--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd4</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.22839533333334</v>
+        <v>19.524618</v>
       </c>
       <c r="N2">
-        <v>87.685186</v>
+        <v>58.573854</v>
       </c>
       <c r="O2">
-        <v>0.4452121315669254</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P2">
-        <v>0.498852598788108</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q2">
-        <v>1.896552630792445</v>
+        <v>1.339857385632</v>
       </c>
       <c r="R2">
-        <v>17.068973677132</v>
+        <v>12.058716470688</v>
       </c>
       <c r="S2">
-        <v>0.004980231641768826</v>
+        <v>0.004978030731484715</v>
       </c>
       <c r="T2">
-        <v>0.005604979264669065</v>
+        <v>0.005439110998883185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.24435933333333</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>45.733078</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.232204800700274</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P3">
-        <v>0.2601815181287207</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q3">
-        <v>0.9891658255151112</v>
+        <v>1.046128914890667</v>
       </c>
       <c r="R3">
-        <v>8.902492429636</v>
+        <v>9.415160234016001</v>
       </c>
       <c r="S3">
-        <v>0.002597489182848763</v>
+        <v>0.003886728500559098</v>
       </c>
       <c r="T3">
-        <v>0.002923332498827031</v>
+        <v>0.004246729053590748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.177737</v>
+        <v>11.9507005</v>
       </c>
       <c r="N4">
-        <v>42.355474</v>
+        <v>23.901401</v>
       </c>
       <c r="O4">
-        <v>0.3225830677328007</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P4">
-        <v>0.2409658830831714</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q4">
-        <v>1.374166879964667</v>
+        <v>0.820104871112</v>
       </c>
       <c r="R4">
-        <v>8.245001279788001</v>
+        <v>4.920629226672</v>
       </c>
       <c r="S4">
-        <v>0.003608478491741755</v>
+        <v>0.003046971487573777</v>
       </c>
       <c r="T4">
-        <v>0.002707430574592494</v>
+        <v>0.002219460803583414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.659039666666668</v>
+        <v>0.068624</v>
       </c>
       <c r="H5">
-        <v>16.977119</v>
+        <v>0.205872</v>
       </c>
       <c r="I5">
-        <v>0.9755855634461335</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J5">
-        <v>0.9799063747781704</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>29.22839533333334</v>
+        <v>0.272275</v>
       </c>
       <c r="N5">
-        <v>87.685186</v>
+        <v>0.816825</v>
       </c>
       <c r="O5">
-        <v>0.4452121315669254</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P5">
-        <v>0.498852598788108</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q5">
-        <v>165.4046485843483</v>
+        <v>0.0186845996</v>
       </c>
       <c r="R5">
-        <v>1488.641837259134</v>
+        <v>0.1681613964</v>
       </c>
       <c r="S5">
-        <v>0.434342528227773</v>
+        <v>6.941970989726922E-05</v>
       </c>
       <c r="T5">
-        <v>0.488828841627124</v>
+        <v>7.584957345751498E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>16.977119</v>
       </c>
       <c r="I6">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J6">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.24435933333333</v>
+        <v>19.524618</v>
       </c>
       <c r="N6">
-        <v>45.733078</v>
+        <v>58.573854</v>
       </c>
       <c r="O6">
-        <v>0.232204800700274</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P6">
-        <v>0.2601815181287207</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q6">
-        <v>86.26843416025358</v>
+        <v>110.490587738514</v>
       </c>
       <c r="R6">
-        <v>776.4159074422821</v>
+        <v>994.4152896466261</v>
       </c>
       <c r="S6">
-        <v>0.226535651326074</v>
+        <v>0.4105105119398124</v>
       </c>
       <c r="T6">
-        <v>0.2549535282137955</v>
+        <v>0.4485332375565823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,226 +853,164 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.177737</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N7">
-        <v>42.355474</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O7">
-        <v>0.3225830677328007</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P7">
-        <v>0.2409658830831714</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q7">
-        <v>119.8456537332344</v>
+        <v>86.26843416025358</v>
       </c>
       <c r="R7">
-        <v>719.0739223994061</v>
+        <v>776.4159074422822</v>
       </c>
       <c r="S7">
-        <v>0.3147073838922866</v>
+        <v>0.3205168856118529</v>
       </c>
       <c r="T7">
-        <v>0.236124004937251</v>
+        <v>0.3502041292821146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.07673250000000001</v>
+        <v>5.659039666666668</v>
       </c>
       <c r="H8">
-        <v>0.153465</v>
+        <v>16.977119</v>
       </c>
       <c r="I8">
-        <v>0.01322823723750722</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J8">
-        <v>0.008857882883740871</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.22839533333334</v>
+        <v>11.9507005</v>
       </c>
       <c r="N8">
-        <v>87.685186</v>
+        <v>23.901401</v>
       </c>
       <c r="O8">
-        <v>0.4452121315669254</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P8">
-        <v>0.498852598788108</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q8">
-        <v>2.242767844915</v>
+        <v>67.62948817395318</v>
       </c>
       <c r="R8">
-        <v>13.45660706949</v>
+        <v>405.7769290437191</v>
       </c>
       <c r="S8">
-        <v>0.005889371697383564</v>
+        <v>0.2512667945818132</v>
       </c>
       <c r="T8">
-        <v>0.004418777896314834</v>
+        <v>0.1830265902029962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.07673250000000001</v>
+        <v>5.659039666666668</v>
       </c>
       <c r="H9">
-        <v>0.153465</v>
+        <v>16.977119</v>
       </c>
       <c r="I9">
-        <v>0.01322823723750722</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J9">
-        <v>0.008857882883740871</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>15.24435933333333</v>
+        <v>0.272275</v>
       </c>
       <c r="N9">
-        <v>45.733078</v>
+        <v>0.816825</v>
       </c>
       <c r="O9">
-        <v>0.232204800700274</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P9">
-        <v>0.2601815181287207</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q9">
-        <v>1.169737802545</v>
+        <v>1.540815025241667</v>
       </c>
       <c r="R9">
-        <v>7.018426815270001</v>
+        <v>13.867335227175</v>
       </c>
       <c r="S9">
-        <v>0.003071660191351307</v>
+        <v>0.005724657437006574</v>
       </c>
       <c r="T9">
-        <v>0.00230465741609811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.153465</v>
-      </c>
-      <c r="I10">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J10">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>21.177737</v>
-      </c>
-      <c r="N10">
-        <v>42.355474</v>
-      </c>
-      <c r="O10">
-        <v>0.3225830677328007</v>
-      </c>
-      <c r="P10">
-        <v>0.2409658830831714</v>
-      </c>
-      <c r="Q10">
-        <v>1.6250207043525</v>
-      </c>
-      <c r="R10">
-        <v>6.500082817410001</v>
-      </c>
-      <c r="S10">
-        <v>0.004267205348772347</v>
-      </c>
-      <c r="T10">
-        <v>0.002134447571327928</v>
+        <v>0.006254892528792032</v>
       </c>
     </row>
   </sheetData>
